--- a/book/ch4-spreadsheets/res/charting_start.xlsx
+++ b/book/ch4-spreadsheets/res/charting_start.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\book\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A732ED-5A37-484A-80B3-0BF8BC5EAA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Bills" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
   <si>
     <t>Monthly Bills</t>
   </si>
   <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
     <t>Heat</t>
   </si>
   <si>
@@ -42,49 +74,20 @@
   </si>
   <si>
     <t>Electricity</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Bill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +102,302 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -116,20 +405,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,28 +616,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB7CC796-625B-4F67-A21B-F5F92EC136B6}" name="Table1" displayName="Table1" ref="A2:M6">
-  <autoFilter ref="A2:M6" xr:uid="{B3E2A935-9796-48E4-B8C8-BCF1ADC3ADB2}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{ADC66C16-C47B-4881-BCE9-820AE13170B3}" name="Bill" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F07F60EF-50A2-4246-8FC8-4764BD618052}" name="Jan"/>
-    <tableColumn id="3" xr3:uid="{93274AA1-0826-42CC-833E-53149120F1F1}" name="Feb"/>
-    <tableColumn id="4" xr3:uid="{B9D35D8F-563D-4433-88C9-22D2DF8C18CC}" name="Mar"/>
-    <tableColumn id="5" xr3:uid="{FFFCF184-5865-453B-BB29-8CF807BCBD99}" name="Apr"/>
-    <tableColumn id="6" xr3:uid="{80EBD922-9DAE-4B1E-BD1E-FDB79D95BC05}" name="May"/>
-    <tableColumn id="7" xr3:uid="{02D25BD1-EAE1-49FC-A362-E3F7CC68499A}" name="Jun"/>
-    <tableColumn id="8" xr3:uid="{A351B010-4A89-4370-92C0-5BA4365C1DFF}" name="Jul"/>
-    <tableColumn id="9" xr3:uid="{869FAD3F-2672-4E1A-93D1-80B354BA687E}" name="Aug"/>
-    <tableColumn id="10" xr3:uid="{DC03BC85-3B38-474D-A9B0-2D88F09DE5D4}" name="Sep"/>
-    <tableColumn id="11" xr3:uid="{61E8AF00-9551-426A-9B9F-DB7B13E2C5E0}" name="Oct"/>
-    <tableColumn id="12" xr3:uid="{961A7A49-20BC-4FD5-AF41-E5F3222C0ADD}" name="Nov"/>
-    <tableColumn id="13" xr3:uid="{33482D86-74F3-4587-9694-2D31E74D26F7}" name="Dec" totalsRowFunction="sum"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,19 +902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="14" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,48 +928,48 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>231</v>
@@ -563,7 +1010,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -604,7 +1051,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -645,7 +1092,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>224</v>
@@ -685,13 +1132,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>